--- a/data/income_statement/3digits/total/853_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/853_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>853-Secondary education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>853-Secondary education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1394580.93987</v>
@@ -959,34 +865,39 @@
         <v>2016133.73541</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2517994.32017</v>
+        <v>2522810.83637</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3308621.334349999</v>
+        <v>3315487.19462</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4134950.90139</v>
+        <v>4158012.47171</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6895963.06125</v>
+        <v>7073201.768879999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4912390.377760001</v>
+        <v>7601061.547530001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9419803.142609999</v>
+        <v>9419803.14261</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15754986.48914</v>
+        <v>11407981.81635</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13831198.60165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13948875.06716</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14922033.935</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1375514.29001</v>
@@ -998,34 +909,39 @@
         <v>1982777.12472</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2451705.78694</v>
+        <v>2455993.77997</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3235223.77054</v>
+        <v>3241965.95912</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4039742.1428</v>
+        <v>4061605.90334</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6730472.742</v>
+        <v>6899361.685349999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4773087.343120001</v>
+        <v>7410184.84589</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>9165244.2816</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15391765.27386</v>
+        <v>11044076.8475</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13313479.47637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13428213.58035</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14386568.237</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>101.02308</v>
@@ -1034,37 +950,42 @@
         <v>2426.00938</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>677.86508</v>
+        <v>677.8650799999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>17340.98495</v>
+        <v>17831.21355</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>2324.54538</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3340.13001</v>
+        <v>3489.64079</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>3629.13663</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5410.67021</v>
+        <v>5469.2763</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4906.74445</v>
+        <v>4906.744449999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>10981.16689</v>
+        <v>10986.1085</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>16620.66652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16969.22905</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>52539.21</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>18965.62678</v>
@@ -1076,34 +997,39 @@
         <v>32678.74561</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>48947.54828</v>
+        <v>48985.84285</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>71073.01843000001</v>
+        <v>71196.69012</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>91868.62858000002</v>
+        <v>92916.92758</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>161861.18262</v>
+        <v>170210.9469</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>133892.36443</v>
+        <v>185407.42534</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>249652.11656</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>352240.04839</v>
+        <v>352918.86035</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>501098.4587600001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>503692.25776</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>482926.488</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>16207.55455</v>
@@ -1121,28 +1047,33 @@
         <v>75327.86864</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>68047.83493000001</v>
+        <v>68190.86271</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>156321.72126</v>
+        <v>159282.06914</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>70175.34868</v>
+        <v>178193.37422</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>258992.83957</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4709528.308270001</v>
+        <v>351907.49508</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>495019.84153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>489686.18519</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>694090.469</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2294.80114</v>
@@ -1160,28 +1091,33 @@
         <v>6935.835599999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>19326.47131</v>
+        <v>19469.49909</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>32780.40527</v>
+        <v>32972.63166</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>21091.81704</v>
+        <v>35847.60814</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>50298.77108000001</v>
+        <v>50298.77108</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4405497.69092</v>
+        <v>47876.87773000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>86486.69148000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>86557.53053</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>203532.526</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>9764.98286</v>
@@ -1196,16 +1132,16 @@
         <v>42998.72578</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>61657.32891</v>
+        <v>61657.32891000001</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>39090.35163</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>105463.80906</v>
+        <v>108231.93055</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>42815.69586</v>
+        <v>116317.24363</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>174845.43011</v>
@@ -1214,13 +1150,18 @@
         <v>262539.51484</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>352194.56602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>351892.24302</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>423854.377</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4147.77055</v>
@@ -1244,7 +1185,7 @@
         <v>18077.50693</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>6267.83578</v>
+        <v>26028.52245</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>33848.63838</v>
@@ -1253,13 +1194,18 @@
         <v>41491.10251</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>56338.58402999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>51236.41163999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>66703.56600000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1378373.38532</v>
@@ -1271,34 +1217,39 @@
         <v>1980431.92065</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2458819.32536</v>
+        <v>2463635.84156</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3233293.46571</v>
+        <v>3240159.32598</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4066903.06646</v>
+        <v>4089821.609</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6739641.339989999</v>
+        <v>6913919.69974</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4842215.02908</v>
+        <v>7422868.17331</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9160810.30304</v>
+        <v>9160810.303040002</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11045458.18087</v>
+        <v>11056074.32127</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>13336178.76012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13459188.88197</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14227943.466</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1111072.42744</v>
@@ -1310,34 +1261,39 @@
         <v>1599411.7721</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1986131.44773</v>
+        <v>1989327.62101</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2606147.60114</v>
+        <v>2611944.78174</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3284790.3426</v>
+        <v>3305561.87395</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5444867.25816</v>
+        <v>5608286.79841</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3792743.654179999</v>
+        <v>5910951.22767</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>7255886.587</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9365826.69778</v>
+        <v>9374687.750879999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11699448.61307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11828318.37697</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11041183.955</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4233.03686</v>
@@ -1355,28 +1311,33 @@
         <v>11463.4482</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>30021.2633</v>
+        <v>30021.26330000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>20331.24434</v>
+        <v>24518.85455</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>14679.84449</v>
+        <v>23475.1479</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>36626.69145000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>69138.01627000001</v>
+        <v>69196.90144</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>152307.83259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>153229.05218</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>203947.756</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>16215.99498</v>
@@ -1388,34 +1349,39 @@
         <v>35862.47123</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>45667.22365000001</v>
+        <v>45888.07860000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>67699.51431999999</v>
+        <v>67929.97297</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>87568.89824999998</v>
+        <v>87772.2298</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>156382.04776</v>
+        <v>163473.41135</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>146648.11917</v>
+        <v>209433.27122</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>233696.65319</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>348396.68888</v>
+        <v>348846.0615299999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>728352.9663699999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>732882.42047</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>821689.348</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1089051.99911</v>
@@ -1427,40 +1393,45 @@
         <v>1522182.52191</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1927020.01168</v>
+        <v>1929995.33001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2525752.01539</v>
+        <v>2531318.73734</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3161251.26654</v>
+        <v>3181819.46634</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5244067.95056</v>
+        <v>5394848.904770001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3599763.7</v>
+        <v>5643406.16374</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>6936255.538980001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8916019.46109</v>
+        <v>8924346.832630001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>10764299.18739</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10887432.99318</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>9944973.868000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1571.39649</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>790.7678699999999</v>
+        <v>790.76787</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>3294.20637</v>
@@ -1475,28 +1446,33 @@
         <v>5948.91451</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>24086.0155</v>
+        <v>25445.62774</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>31651.99052</v>
+        <v>34636.64481000001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>49307.70337999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>32272.53154</v>
+        <v>32297.95528</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>54488.62672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>54773.91114</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>70572.98299999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>267300.9578799999</v>
+        <v>267300.95788</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>317703.08951</v>
@@ -1505,34 +1481,39 @@
         <v>381020.1485499999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>472687.87763</v>
+        <v>474308.22055</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>627145.8645700001</v>
+        <v>628214.54424</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>782112.7238599999</v>
+        <v>784259.7350499999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1294774.08183</v>
+        <v>1305632.90133</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1049471.3749</v>
+        <v>1511916.94564</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1904923.71604</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1679631.48309</v>
+        <v>1681386.57039</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1636730.14705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1630870.505</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3186759.511</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>184933.81126</v>
@@ -1544,34 +1525,39 @@
         <v>279028.19876</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>348323.8871</v>
+        <v>350371.6036099999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>492343.2466900001</v>
+        <v>494479.5036800001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>622336.77614</v>
+        <v>630522.72082</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1009474.5049</v>
+        <v>1033246.32061</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>815734.10601</v>
+        <v>1157127.01742</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1351969.06184</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1705924.34201</v>
+        <v>1710121.42644</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2052296.45015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2077149.58274</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2023849.359</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3.5702</v>
@@ -1601,16 +1587,21 @@
         <v>5570.988560000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>280.56689</v>
+        <v>388.6481</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>4850.15619</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>10295.997</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>10744.04846</v>
@@ -1625,31 +1616,36 @@
         <v>41181.04567</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>53648.35136</v>
+        <v>53648.94636</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>101596.45175</v>
+        <v>102329.70507</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>149737.16815</v>
+        <v>151885.39592</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>84040.79507000001</v>
+        <v>125919.86254</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>168409.81785</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>219141.45362</v>
+        <v>219306.91929</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>210832.96967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>213618.94974</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>167594.136</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>174186.1926</v>
@@ -1661,34 +1657,39 @@
         <v>256527.70706</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>307126.90083</v>
+        <v>309174.6173400001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>432795.16176</v>
+        <v>434930.82375</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>520007.91875</v>
+        <v>527460.61011</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>859601.54927</v>
+        <v>881225.1372100001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>731112.57589</v>
+        <v>1030626.41983</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1177988.25543</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1486502.3215</v>
+        <v>1490425.85905</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1836613.32429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1858680.47681</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1845959.226</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>82367.14662</v>
@@ -1700,79 +1701,89 @@
         <v>101991.94979</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>124363.99053</v>
+        <v>123936.61694</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>134802.61788</v>
+        <v>133735.04056</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>159775.94772</v>
+        <v>153737.01423</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>285299.57693</v>
+        <v>272386.58072</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>233737.26889</v>
+        <v>354789.92822</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>552954.6542</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-26292.85892</v>
+        <v>-28734.85605000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-415566.3031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-446279.07774</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1162910.152</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>66229.75939000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>67042.87400999998</v>
+        <v>67042.87401</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>85868.76300000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>96615.05351000001</v>
+        <v>96615.53761999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>110660.89024</v>
+        <v>110688.90152</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>143594.71532</v>
+        <v>143648.27972</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>240266.69451</v>
+        <v>247810.05119</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>192605.1517</v>
+        <v>310231.70486</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>490035.80497</v>
+        <v>490035.8049700001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>798193.79761</v>
+        <v>798221.4057900001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>965954.0467300001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>967404.4887000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>918101.589</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>228.68724</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>53.17223</v>
+        <v>53.17223000000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>43.27942</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>884.82813</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>80.879</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2620.786</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>29663.64287</v>
@@ -1856,19 +1877,19 @@
         <v>28629.47761</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>40521.07026000001</v>
+        <v>40521.15932999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>38108.65484999999</v>
+        <v>38108.66958</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>52894.85501000001</v>
+        <v>52894.85501</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>74394.78253</v>
+        <v>76078.69029</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>47184.11511</v>
+        <v>97295.48399999998</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>152713.95833</v>
@@ -1877,16 +1898,21 @@
         <v>235257.52913</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>340021.47317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>340171.13851</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>239355.805</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>82.18115999999999</v>
+        <v>82.18116000000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>214.47348</v>
@@ -1895,10 +1921,10 @@
         <v>201.72851</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>679.0393200000001</v>
+        <v>679.03932</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>86.86965000000001</v>
+        <v>86.86964999999999</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>249.69142</v>
@@ -1907,7 +1933,7 @@
         <v>1143.68621</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1356.94463</v>
+        <v>1367.13197</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>4850.083860000001</v>
@@ -1916,13 +1942,18 @@
         <v>1049.36164</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>25358.33108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>25358.40884</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>25786.318</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2534.36965</v>
@@ -1934,19 +1965,19 @@
         <v>4122.21073</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2735.71936</v>
+        <v>2735.719360000001</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>2911.8612</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>5899.802890000001</v>
+        <v>5899.80289</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>9060.20717</v>
+        <v>9134.64112</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6913.39254</v>
+        <v>11067.22954</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11977.02802</v>
@@ -1955,13 +1986,18 @@
         <v>14108.03812</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>17969.93559</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17980.23559</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>21782.875</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3079.89701</v>
@@ -1976,16 +2012,16 @@
         <v>1902.14206</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2454.35474</v>
+        <v>2454.36011</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>2773.96733</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4516.97264</v>
+        <v>4517.28895</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2129.7594</v>
+        <v>6061.829880000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>5141.12529</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>19752.1178</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>25177.388</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>15473.02965</v>
@@ -2012,19 +2053,19 @@
         <v>13510.71074</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>16919.97684</v>
+        <v>16920.21936</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>18463.81273</v>
+        <v>18466.68447</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>25081.56012</v>
+        <v>25096.58188</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>71253.24220000001</v>
+        <v>75046.74728</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>44340.65433</v>
+        <v>62282.16058</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>154534.96066</v>
@@ -2033,13 +2074,18 @@
         <v>374877.37138</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>323040.30475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>323045.15216</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>395893.756</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>125.06441</v>
@@ -2057,13 +2103,13 @@
         <v>83.06595999999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>180.9975</v>
+        <v>185.42852</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>414.94562</v>
+        <v>420.96504</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>46.72686</v>
+        <v>246.22669</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>704.2416000000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>414.74863</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>821.4880000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>33.34744</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>8.400040000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>15009.53996</v>
@@ -2126,37 +2182,42 @@
         <v>28638.97039</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>37441.58099</v>
+        <v>37441.58098999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>33579.86034000001</v>
+        <v>33580.01286</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>43583.93086</v>
+        <v>43609.0503</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>51354.22156000001</v>
+        <v>51388.33318</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>79419.22820999999</v>
+        <v>81404.40237000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>89521.19515</v>
+        <v>130799.27852</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>160034.01375</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>162315.42004</v>
+        <v>162343.02822</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>238483.90754</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>239769.459</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>206582.294</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>24959.62133</v>
@@ -2168,34 +2229,39 @@
         <v>31836.41799</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>24505.84324</v>
+        <v>24563.82089</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>57178.99847</v>
+        <v>57235.49993999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>51166.59162</v>
+        <v>51178.07185</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>103081.28732</v>
+        <v>105727.85774</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>207237.61114</v>
+        <v>236221.55739</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>296190.34659</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>300476.52771</v>
+        <v>300481.79045</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>485621.03776</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>481134.54268</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>364958.926</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>202.26448</v>
@@ -2207,37 +2273,42 @@
         <v>105.56069</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>279.81295</v>
+        <v>337.6829</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>333.94219</v>
+        <v>389.29051</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>925.36834</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1151.21387</v>
+        <v>1195.96249</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1089.46044</v>
+        <v>1871.03684</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>5683.33871</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3153.9906</v>
+        <v>3158.39897</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>29071.34576</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>29148.59059</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>60826.303</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>7155.64403</v>
+        <v>7155.644029999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>8988.77585</v>
@@ -2255,10 +2326,10 @@
         <v>19815.40137</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30258.3498</v>
+        <v>30362.54586</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>24307.63037</v>
+        <v>34778.10578</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>33545.44895</v>
@@ -2267,13 +2338,18 @@
         <v>33632.63219</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>62909.32344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>63154.29747</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>50914.227</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>95.92278999999999</v>
@@ -2297,46 +2373,51 @@
         <v>139.42647</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>69.01911</v>
+        <v>178.39549</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>171.51559</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>572.68924</v>
+        <v>573.5032199999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>86.73169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>86.42209</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1538.029</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>15625.32614</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>7807.82027</v>
+        <v>7807.820269999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>16502.88159</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>12949.97774</v>
+        <v>12950.08544</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>30183.33079</v>
+        <v>30184.48394</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>23839.26734</v>
+        <v>23844.72731</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>51643.41026999999</v>
+        <v>54089.53051</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>150049.76257</v>
+        <v>164905.74813</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>220219.96925</v>
@@ -2345,13 +2426,18 @@
         <v>237180.99886</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>341544.47348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>341544.78308</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>224333.126</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>185.47511</v>
@@ -2369,13 +2455,13 @@
         <v>169.5919</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>215.37737</v>
+        <v>221.39679</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>260.21229</v>
+        <v>270.87927</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>87.82104000000001</v>
+        <v>645.84847</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>179.05339</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>762.28436</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1714.031</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.02262</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1694.96616</v>
@@ -2444,31 +2540,36 @@
         <v>1305.68367</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4217.84969</v>
+        <v>4217.849689999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5972.785150000001</v>
+        <v>5972.78599</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>19628.67462</v>
+        <v>19669.51314</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>31633.91761</v>
+        <v>33842.41968</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>36391.0207</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>25373.44057</v>
+        <v>25373.48096</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>51246.87903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>46438.16508999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>25633.21</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>24636.75403</v>
@@ -2480,34 +2581,39 @@
         <v>26680.63199</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>30395.1326</v>
+        <v>30771.18031</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>62211.6776</v>
+        <v>62623.27525</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>84669.53306999999</v>
+        <v>84940.18101</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>167879.98308</v>
+        <v>177668.95138</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>124615.29045</v>
+        <v>196047.56438</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>335010.13275</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>561905.26171</v>
+        <v>561959.7074000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>661721.6838699998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>666078.30163</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>623099.431</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>20888.46988</v>
@@ -2519,34 +2625,39 @@
         <v>21562.77886</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>27779.85143</v>
+        <v>28155.89914</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>41165.14253</v>
+        <v>41576.74018000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>68218.40582000001</v>
+        <v>68489.05376</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>139597.21929</v>
+        <v>142877.93218</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>104915.92089</v>
+        <v>172513.2915</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>266968.02806</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>430299.2791</v>
+        <v>430353.72479</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>572416.99332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>576128.47504</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>526467.996</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3748.28415</v>
@@ -2555,7 +2666,7 @@
         <v>3149.93331</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>5117.853129999999</v>
+        <v>5117.85313</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>2615.28117</v>
@@ -2567,10 +2678,10 @@
         <v>16451.12725</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>28282.76379</v>
+        <v>34791.0192</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>19699.36956</v>
+        <v>23534.27288</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>68042.10468999999</v>
@@ -2579,13 +2690,18 @@
         <v>131605.98261</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>89304.69055000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>89949.82659</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>96631.435</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>99000.53064999999</v>
@@ -2597,34 +2713,39 @@
         <v>129343.66281</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>166078.0682</v>
+        <v>165217.15336</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>126072.83205</v>
+        <v>124565.16689</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>167534.53835</v>
+        <v>161267.04109</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>254605.00104</v>
+        <v>236799.82279</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>94489.519</v>
+        <v>232752.51131</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>411789.97983</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-90480.85073000002</v>
+        <v>-92954.94811</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-596954.9779999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-626087.4333500001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1092953.384</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>16821.37676</v>
@@ -2639,31 +2760,36 @@
         <v>33893.74601</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>71821.92795</v>
+        <v>72300.93913000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>136386.87672</v>
+        <v>136396.68155</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>156621.49404</v>
+        <v>157898.50677</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>57138.00675</v>
+        <v>82739.66377</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>170869.03984</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>178815.68183</v>
+        <v>178820.8933</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>206307.13979</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>208430.07281</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>270986.791</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>487.70243</v>
@@ -2684,10 +2810,10 @@
         <v>895.7309799999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>773.7281800000001</v>
+        <v>824.1373599999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>472.0869400000001</v>
+        <v>511.74646</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1432.07009</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2027.06339</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4964.72</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>16333.67433</v>
@@ -2717,31 +2848,36 @@
         <v>33400.07215</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>71303.71489</v>
+        <v>71782.72606999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>135491.14574</v>
+        <v>135500.95057</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>155847.76586</v>
+        <v>157074.36941</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>56665.91981</v>
+        <v>82227.91731</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>169436.96975</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>177300.05014</v>
+        <v>177305.26161</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>204280.0764</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>206403.00942</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>266022.071</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>11049.55881</v>
@@ -2753,34 +2889,39 @@
         <v>103629.31573</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>42495.76740999999</v>
+        <v>42496.14949</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>54929.79244999999</v>
+        <v>54929.81652</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>57294.11233</v>
+        <v>57724.35732</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>88000.21218</v>
+        <v>90056.53589</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>103765.40574</v>
+        <v>129282.33728</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>87569.66131</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>240462.07906</v>
+        <v>240465.29285</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>182324.44431</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>183135.07722</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>185017.869</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>27.375</v>
@@ -2804,10 +2945,10 @@
         <v>1057.00195</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>228.7385</v>
+        <v>1210.38932</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>422.40605</v>
+        <v>422.4060500000001</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>354.48405</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>3168.95339</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>9219.787</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1417.39879</v>
@@ -2837,13 +2983,13 @@
         <v>9369.990039999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3265.93495</v>
+        <v>3266.34771</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10703.03649</v>
+        <v>10708.68185</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>992.20113</v>
+        <v>3464.34745</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>3523.95422</v>
@@ -2852,13 +2998,18 @@
         <v>3549.31901</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5107.030059999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5107.08847</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7084.081</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>9604.785019999999</v>
@@ -2867,37 +3018,42 @@
         <v>16160.3273</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>99669.03981999999</v>
+        <v>99669.03982000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>26544.10522</v>
+        <v>26544.4873</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>45139.42055</v>
+        <v>45139.44462000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>53777.31277</v>
+        <v>54207.14499999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>76240.17374</v>
+        <v>78290.85209</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>102544.46611</v>
+        <v>124607.60051</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>83623.30103999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>236558.276</v>
+        <v>236561.48979</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>174048.46086</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>174859.03536</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>168714.001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>104772.3486</v>
@@ -2909,34 +3065,39 @@
         <v>46260.10416</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>157476.0468</v>
+        <v>156614.74988</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>142964.96755</v>
+        <v>141936.2895</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>246627.30274</v>
+        <v>239939.36532</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>323226.2829</v>
+        <v>304641.79367</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>47862.12000999999</v>
+        <v>186209.8378</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>495089.35836</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-152127.24796</v>
+        <v>-154599.34766</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-572972.28252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-600792.43776</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1178922.306</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>21593.89267</v>
@@ -2957,25 +3118,30 @@
         <v>47259.95319</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>70229.63657999999</v>
+        <v>70479.98007000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>33436.91418</v>
+        <v>61955.64237</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>86791.22551999999</v>
+        <v>86791.22551999998</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>132405.30119</v>
+        <v>132460.67922</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>115877.57104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>118107.31714</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>162918.182</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>83178.45593000001</v>
@@ -2987,31 +3153,34 @@
         <v>16640.32172</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>124290.83311</v>
+        <v>123429.53619</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>101825.68556</v>
+        <v>100797.00751</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>199367.34955</v>
+        <v>192679.41213</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>252996.64632</v>
+        <v>234161.8136</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>14425.20583000001</v>
+        <v>124254.19543</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>408298.13284</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-284532.54915</v>
+        <v>-287060.02688</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-688849.85356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-718899.7548999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1016004.124</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>361</v>
@@ -3041,31 +3213,34 @@
         <v>540</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1954</v>
+        <v>1993</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1904</v>
+        <v>2082</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2430</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2730</v>
+        <v>2870</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3197</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>